--- a/prodinfo/mea/sa/output/res20260111.xlsx
+++ b/prodinfo/mea/sa/output/res20260111.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-01-11 18:39:40</v>
+        <v>2026-01-11 19:22:26</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,30 +450,1111 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-01-11 18:40:53</v>
+        <v>2026-01-11 19:22:37</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
       </c>
       <c r="C3" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</v>
       </c>
       <c r="E3" t="str">
-        <v>APPLE iPhone 17 Pro 12+1024</v>
+        <v>APPLE iPhone 17 Pro 12+256</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>6260</v>
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-11 19:22:46</v>
+      </c>
+      <c r="B4" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D4" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
+      </c>
+      <c r="E4" t="str">
+        <v>APPLE iPhone 17 Pro 12+512</v>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2026-01-11 19:22:55</v>
+      </c>
+      <c r="B5" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D5" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
+      </c>
+      <c r="E5" t="str">
+        <v>HONOR 400 12+256</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2026-01-11 19:23:05</v>
+      </c>
+      <c r="B6" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D6" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
+      </c>
+      <c r="E6" t="str">
+        <v>HONOR 400 Pro 12+512</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2026-01-11 19:23:14</v>
+      </c>
+      <c r="B7" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D7" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
+      </c>
+      <c r="E7" t="str">
+        <v>HONOR Magic 8 Pro 12+512</v>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2026-01-11 19:23:20</v>
+      </c>
+      <c r="B8" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
+      </c>
+      <c r="E8" t="str">
+        <v>HONOR X9C 12+256</v>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2026-01-11 19:23:31</v>
+      </c>
+      <c r="B9" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D9" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
+      </c>
+      <c r="E9" t="str">
+        <v>HONOR X9D 12+256</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2026-01-11 19:23:35</v>
+      </c>
+      <c r="B10" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D10" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
+      </c>
+      <c r="E10" t="str">
+        <v>HUAWEI nova 13  12+256</v>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2026-01-11 19:23:44</v>
+      </c>
+      <c r="B11" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D11" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
+      </c>
+      <c r="E11" t="str">
+        <v>HUAWEI nova 13 Pro 12+512</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2026-01-11 19:23:54</v>
+      </c>
+      <c r="B12" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D12" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
+      </c>
+      <c r="E12" t="str">
+        <v>HUAWEI nova 14 12+256</v>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2026-01-11 19:24:04</v>
+      </c>
+      <c r="B13" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D13" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
+      </c>
+      <c r="E13" t="str">
+        <v>HUAWEI nova 14 Pro 12+512</v>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2026-01-11 19:24:12</v>
+      </c>
+      <c r="B14" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D14" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
+      </c>
+      <c r="E14" t="str">
+        <v>HUAWEI Pura 80 12+256</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2026-01-11 19:24:16</v>
+      </c>
+      <c r="B15" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D15" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
+      </c>
+      <c r="E15" t="str">
+        <v>HUAWEI Pura 80 Pro 12+512</v>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2026-01-11 19:24:23</v>
+      </c>
+      <c r="B16" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D16" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
+      </c>
+      <c r="E16" t="str">
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2026-01-11 19:24:27</v>
+      </c>
+      <c r="B17" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D17" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
+      </c>
+      <c r="E17" t="str">
+        <v>OPPO Reno 13 12+512</v>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2026-01-11 19:24:36</v>
+      </c>
+      <c r="B18" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D18" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
+      </c>
+      <c r="E18" t="str">
+        <v>OPPO Reno 14F 12+256</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2026-01-11 19:24:42</v>
+      </c>
+      <c r="B19" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D19" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
+      </c>
+      <c r="E19" t="str">
+        <v>SAMSUNG A56 8+256</v>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2026-01-11 19:24:49</v>
+      </c>
+      <c r="B20" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D20" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SAMSUNG S24 Plus 12+256</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2026-01-11 19:24:58</v>
+      </c>
+      <c r="B21" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SAMSUNG S24 Plus 12+512</v>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2026-01-11 19:25:04</v>
+      </c>
+      <c r="B22" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D22" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SAMSUNG S24 Ultra 12+1024</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2026-01-11 19:25:08</v>
+      </c>
+      <c r="B23" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D23" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SAMSUNG S24 Ultra 12+256</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2026-01-11 19:25:18</v>
+      </c>
+      <c r="B24" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D24" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
+      </c>
+      <c r="E24" t="str">
+        <v>SAMSUNG S24 Ultra 12+512</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2026-01-11 19:25:25</v>
+      </c>
+      <c r="B25" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D25" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SAMSUNG S25 12+128</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2026-01-11 19:25:33</v>
+      </c>
+      <c r="B26" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D26" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
+      </c>
+      <c r="E26" t="str">
+        <v>SAMSUNG S25 12+256</v>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2026-01-11 19:25:44</v>
+      </c>
+      <c r="B27" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D27" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SAMSUNG S25 FE 8+256</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2026-01-11 19:25:52</v>
+      </c>
+      <c r="B28" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D28" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
+      </c>
+      <c r="E28" t="str">
+        <v>SAMSUNG S25 Plus 12+256</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2026-01-11 19:25:59</v>
+      </c>
+      <c r="B29" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D29" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
+      </c>
+      <c r="E29" t="str">
+        <v>SAMSUNG S25 Plus 12+512</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2026-01-11 19:26:10</v>
+      </c>
+      <c r="B30" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D30" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
+      </c>
+      <c r="E30" t="str">
+        <v>SAMSUNG S25 Ultra 12+256</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2026-01-11 19:26:19</v>
+      </c>
+      <c r="B31" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D31" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
+      </c>
+      <c r="E31" t="str">
+        <v>SAMSUNG S25 Ultra 12+512</v>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2026-01-11 19:26:28</v>
+      </c>
+      <c r="B32" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D32" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
+      </c>
+      <c r="E32" t="str">
+        <v>SAMSUNG Z Fold 7 12+256</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2026-01-11 19:26:34</v>
+      </c>
+      <c r="B33" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D33" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SAMSUNG Z Fold 7 12+512</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>7349</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2026-01-11 19:26:44</v>
+      </c>
+      <c r="B34" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D34" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
+      </c>
+      <c r="E34" t="str">
+        <v>XIAOMI 15T 12+256</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2026-01-11 19:26:54</v>
+      </c>
+      <c r="B35" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D35" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
+      </c>
+      <c r="E35" t="str">
+        <v>XIAOMI 15T Pro 12+512</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2026-01-11 19:27:03</v>
+      </c>
+      <c r="B36" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D36" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
+      </c>
+      <c r="E36" t="str">
+        <v>XIAOMI Xiaomi 15 12+512</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2026-01-11 19:27:07</v>
+      </c>
+      <c r="B37" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D37" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
+      </c>
+      <c r="E37" t="str">
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2026-01-11 19:27:17</v>
+      </c>
+      <c r="B38" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D38" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</v>
+      </c>
+      <c r="E38" t="str">
+        <v>APPLE iPad Pro M5 12+256，WiFi，13"</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2026-01-11 19:27:27</v>
+      </c>
+      <c r="B39" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D39" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</v>
+      </c>
+      <c r="E39" t="str">
+        <v>APPLE iPad Pro M5 12+256，WiFi，11"</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2026-01-11 19:27:34</v>
+      </c>
+      <c r="B40" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D40" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</v>
+      </c>
+      <c r="E40" t="str">
+        <v>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2026-01-11 19:27:43</v>
+      </c>
+      <c r="B41" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D41" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</v>
+      </c>
+      <c r="E41" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2026-01-11 19:27:47</v>
+      </c>
+      <c r="B42" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D42" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2026-01-11 19:27:59</v>
+      </c>
+      <c r="B43" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D43" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</v>
+      </c>
+      <c r="E43" t="str">
+        <v>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2026-01-11 19:28:05</v>
+      </c>
+      <c r="B44" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D44" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</v>
+      </c>
+      <c r="E44" t="str">
+        <v>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2026-01-11 19:28:13</v>
+      </c>
+      <c r="B45" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D45" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</v>
+      </c>
+      <c r="E45" t="str">
+        <v>APPLE iPad Air M3 8+256，WiFi，11"</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2026-01-11 19:28:20</v>
+      </c>
+      <c r="B46" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D46" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</v>
+      </c>
+      <c r="E46" t="str">
+        <v>APPLE iPad Air M3 8+128，WiFi，11"</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2026-01-11 19:28:25</v>
+      </c>
+      <c r="B47" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D47" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</v>
+      </c>
+      <c r="E47" t="str">
+        <v>APPLE  iPad A16 6+128，LTE，11“</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2026-01-11 19:28:31</v>
+      </c>
+      <c r="B48" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D48" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2026-01-11 19:28:35</v>
+      </c>
+      <c r="B49" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D49" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</v>
+      </c>
+      <c r="E49" t="str">
+        <v>APPLE iPad mini 8+128，WiFi，8.3"</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2026-01-11 19:28:47</v>
+      </c>
+      <c r="B50" t="str">
+        <v>沙特</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Extra</v>
+      </c>
+      <c r="D50" t="str">
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</v>
+      </c>
+      <c r="E50" t="str">
+        <v>APPLE iPad mini 8+256，WiFi，8.3"</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>1649</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G50"/>
   </ignoredErrors>
 </worksheet>
 </file>